--- a/public/downloads/Template Files/Sales Summary Report Result.xlsx
+++ b/public/downloads/Template Files/Sales Summary Report Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RMG\Documents\Task\1-26~Excel Link\Template Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585CBA75-39AE-4984-8444-04B9C90FBFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEF4E3B-039B-4CD5-B7F8-DE9042763FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29010" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Summary Report Result" sheetId="1" r:id="rId1"/>
@@ -443,11 +443,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -473,10 +472,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1702,959 +1701,962 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>Ache Co^80</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Invoice</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3474</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-22 00:00:00</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E2" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>90.9</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>90.9</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>90.9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="str">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3476</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E3" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="str">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3478</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E4" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3480</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E5" t="str">
+      <c r="E5" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B6" t="str">
+      <c r="B6" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3482</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E6" t="str">
+      <c r="E6" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C7" t="str">
+      <c r="C7" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3484</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C8" t="str">
+      <c r="C8" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3486</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E8" t="str">
+      <c r="E8" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C9" t="str">
+      <c r="C9" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3488</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E9" t="str">
+      <c r="E9" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B10" t="str">
+      <c r="B10" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C10" t="str">
+      <c r="C10" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3490</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E10" t="str">
+      <c r="E10" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C11" t="str">
+      <c r="C11" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3492</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E11" t="str">
+      <c r="E11" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C12" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3494</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E12" t="str">
+      <c r="E12" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C13" t="str">
+      <c r="C13" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3496</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E13" t="str">
+      <c r="E13" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C14" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3498</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E14" t="str">
+      <c r="E14" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C15" t="str">
+      <c r="C15" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3500</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-02-23 00:00:00</v>
       </c>
-      <c r="E15" t="str">
+      <c r="E15" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>2862.12</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>286.20999999999998</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>3148.33</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>3148.33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>Metrc</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Invoice</v>
       </c>
-      <c r="C16" t="str">
+      <c r="C16" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3429</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-03-01 00:00:00</v>
       </c>
-      <c r="E16" t="str">
+      <c r="E16" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Josef Steyn</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>1200</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>1200</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>Rasheed Company</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Invoice</v>
       </c>
-      <c r="C17" t="str">
+      <c r="C17" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3501</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-03-01 00:00:00</v>
       </c>
-      <c r="E17" t="str">
+      <c r="E17" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>800</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>80</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>880</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>880</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>Rasheed Company</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Invoice</v>
       </c>
-      <c r="C18" t="str">
+      <c r="C18" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3502</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-03-01 00:00:00</v>
       </c>
-      <c r="E18" t="str">
+      <c r="E18" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>800</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>80</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>880</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>880</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>Rasheed Company</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Invoice</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C19" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3503</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-03-01 00:00:00</v>
       </c>
-      <c r="E19" t="str">
+      <c r="E19" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>800</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>80</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>880</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>880</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC^Repair No 37</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Sales Order</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C20" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3504</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-03-04 00:00:00</v>
       </c>
-      <c r="E20" t="str">
+      <c r="E20" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>109.09</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>0</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>109.09</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>109.09</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>Test 1</v>
       </c>
-      <c r="B21" t="str">
+      <c r="B21" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Invoice</v>
       </c>
-      <c r="C21" t="str">
+      <c r="C21" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3505</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-03-04 00:00:00</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E21" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Admin .</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>1818.18</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>181.82</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>2000</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>Test 1</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Invoice</v>
       </c>
-      <c r="C22" t="str">
+      <c r="C22" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3505</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-03-04 00:00:00</v>
       </c>
-      <c r="E22" t="str">
+      <c r="E22" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Admin .</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>1818.18</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>181.82</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>2000</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>Test 1</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Invoice</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C23" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3505</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-03-04 00:00:00</v>
       </c>
-      <c r="E23" t="str">
+      <c r="E23" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Admin .</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>1818.18</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>181.82</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>2000</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.CustomerName]]</f>
         <v>ABC company^Repair No 45</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Type]]</f>
         <v>Invoice</v>
       </c>
-      <c r="C24" t="str">
+      <c r="C24" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Saleno]]</f>
         <v>3506</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.SaleDate]]</f>
         <v>2023-03-07 00:00:00</v>
       </c>
-      <c r="E24" t="str">
+      <c r="E24" s="1" t="str">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.employeename]]</f>
         <v>Dene Mills</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmount]]</f>
         <v>109.04</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalTax]]</f>
         <v>10.9</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.TotalAmountinc]]</f>
         <v>119.94</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <f>TSalesList_IgnoreDates_false_DateFrom__222023_01_07_22_DateTo__222023_02_07_22[[#This Row],[T.Balance]]</f>
         <v>119.94</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <f>SUM(F2:F24)</f>
         <v>46571.12999999999</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="3">
         <f t="shared" ref="G25:I25" si="0">SUM(G2:G24)</f>
         <v>4517.0899999999992</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="3">
         <f t="shared" si="0"/>
         <v>51088.220000000008</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
         <f t="shared" si="0"/>
         <v>51088.220000000008</v>
       </c>
@@ -2669,7 +2671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009B1A00-553B-49F4-8EA5-70AAE4C7C2A6}">
   <dimension ref="A1:BD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
